--- a/1D-model/input/Ottawa/Ottawa daily increase and removal amount.xlsx
+++ b/1D-model/input/Ottawa/Ottawa daily increase and removal amount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\AAFC\Project 10_STM\2_method\STM-and-1D-model\1D-model\input\Ottawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55C324E-CC40-45EB-8AF9-0563350E269A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA61A7F-A665-4417-95C8-AFD0FCE01DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11380" windowHeight="13370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="H_level" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>doy     level</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>total removal</t>
+  </si>
+  <si>
+    <t>Estimated days</t>
   </si>
 </sst>
 </file>
@@ -585,10 +588,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2258,13 +2262,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>339725</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>34925</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>136525</xdr:rowOff>
@@ -2592,20 +2596,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" customWidth="1"/>
+    <col min="5" max="6" width="9.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2615,11 +2619,14 @@
       <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2630,183 +2637,208 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1.89</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <f>SLOPE(B7:B35,A7:A35)</f>
         <v>1.9914061863232541E-2</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>66</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F3">
+        <f>A35-F2</f>
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <f>B5-B7</f>
+        <v>0.40999999999999992</v>
+      </c>
+      <c r="J3">
+        <f>I3*D$9</f>
+        <v>515.22119518872603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1.88</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>1.89</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
+      <c r="D4">
         <f>SLOPE(B36:B59,A36:A59)</f>
         <v>2.1804347826086957E-2</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <f>B5-B7</f>
-        <v>0.40999999999999992</v>
-      </c>
-      <c r="I3">
-        <f>H3*D$8+D$9*2</f>
-        <v>566.09374249287396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>1.88</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
+      <c r="F4">
+        <f>A59-F2-F3</f>
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <f>B35-B36</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="J4">
+        <f>I4*D$9+D4*D$9*1</f>
+        <v>844.21424151204667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>1.63</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
         <f>SLOPE(B62:B104,A62:A104)</f>
         <v>1.8180452638914633E-2</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>89</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <f>B35-B36</f>
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="I4">
-        <f>H4*D$8+D$9*1</f>
-        <v>842.25036358542013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>1.63</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
+      <c r="F5">
+        <f>A104-SUM(F2:F4)</f>
+        <v>91</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <f>B59-B62</f>
+        <v>2.1599999999999997</v>
+      </c>
+      <c r="J5">
+        <f>I5*D$9+D5*D$9*4</f>
+        <v>2805.7209750205434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>1.24</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <f>SLOPE(B105:B108,A105:A108)</f>
         <v>2.0893139147218808E-2</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>50</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5">
-        <f>B59-B62</f>
-        <v>2.1599999999999997</v>
-      </c>
-      <c r="I5">
-        <f>H5*D$8</f>
-        <v>2714.3360527015811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>1.24</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
+      <c r="F6">
+        <f>A108-SUM(F2:F5)</f>
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <f>B104-B105</f>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="J6">
+        <f>I6*D$9+D6*D$9*36</f>
+        <v>1498.1036543885832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>1.22</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
         <f>SLOPE(B111:B128,A111:A128)</f>
         <v>2.2490939626977811E-2</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>60</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <f>B104-B105</f>
-        <v>0.43999999999999995</v>
-      </c>
-      <c r="I6">
-        <f>H6*D$8+D$9*36</f>
-        <v>1468.6261585064658</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>1.22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <f>SUMPRODUCT(D2:D6,E2:E6)/SUM(E2:E6)</f>
-        <v>2.0241543427828534E-2</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="F7">
+        <f>A128-SUM(F2:F6)+ (366-A128)</f>
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>9</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f>B108-B111</f>
         <v>2.2199999999999998</v>
       </c>
-      <c r="I7">
-        <f>H7*D$8+D$9*5</f>
-        <v>2916.9156446481056</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7">
+        <f>I7*D$9+D7*D$9*5</f>
+        <v>2931.0490177966262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>29</v>
       </c>
@@ -2814,37 +2846,41 @@
         <v>1.37</v>
       </c>
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <f>SUMPRODUCT(D3:D7,E3:E7)/SUM(E3:E7)</f>
+        <v>2.0241543427828534E-2</v>
+      </c>
+      <c r="F8">
+        <f>SUM(F2:F7)</f>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>1.37</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <f>20^2*PI()</f>
         <v>1256.6370614359173</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>1.37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1">
-        <f>D7*D8</f>
-        <v>25.436273652073954</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="G9" t="s">
+      <c r="F9" s="1"/>
+      <c r="H9" t="s">
         <v>22</v>
       </c>
-      <c r="I9">
-        <f>SUM(I3:I7)</f>
-        <v>8508.2219619344469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9">
+        <f>SUM(J3:J7)</f>
+        <v>8594.3090839065262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>31</v>
       </c>
@@ -2852,23 +2888,32 @@
         <v>1.38</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2">
-        <f>D7*D8*366</f>
-        <v>9309.6761566590667</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <f>D8*D9</f>
+        <v>25.436273652073954</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>32</v>
       </c>
       <c r="B11">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <f>D8*D9*366</f>
+        <v>9309.6761566590667</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>35</v>
       </c>
@@ -2876,7 +2921,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>36</v>
       </c>
@@ -2884,7 +2929,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>55</v>
       </c>
@@ -2892,7 +2937,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>69</v>
       </c>
@@ -2900,7 +2945,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>71</v>
       </c>
